--- a/stat_port_assignment.xlsx
+++ b/stat_port_assignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Codes\Uebung1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Codes\Uebung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8CB565-ABDB-4CA8-8E78-40946EE6C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EA67F4-FA92-4017-8708-C7F4286EF7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3B84059-0765-428F-9032-5F1848D53A7F}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="7">
-  <si>
-    <t>Zuweisung
-Port</t>
-  </si>
-  <si>
-    <t>Messstellen 
-Nummer</t>
-  </si>
-  <si>
-    <t>statik Box
-(K2, K3, K4)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
   <si>
     <t>K2</t>
   </si>
@@ -60,6 +48,19 @@
   </si>
   <si>
     <t>p_stat</t>
+  </si>
+  <si>
+    <t>measurement point number</t>
+  </si>
+  <si>
+    <t>static box
+(K2, K3, K4)</t>
+  </si>
+  <si>
+    <t>inactivated</t>
+  </si>
+  <si>
+    <t>port assignment on static box</t>
   </si>
 </sst>
 </file>
@@ -443,185 +444,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969A3BA-3CAA-4151-A2CE-EDCD1A602D47}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -632,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -643,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -654,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -665,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -676,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -687,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -698,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -709,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -720,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -731,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -742,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -753,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -764,7 +771,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -775,7 +782,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -786,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -797,7 +804,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -808,7 +815,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -819,7 +826,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -830,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -841,7 +848,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -852,7 +859,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -863,7 +870,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -874,7 +881,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -885,7 +892,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -896,7 +903,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -907,7 +914,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -918,7 +925,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -929,7 +936,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -940,7 +947,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -951,7 +958,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -962,7 +969,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>14</v>
@@ -973,7 +980,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -984,7 +991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -995,7 +1002,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -1006,7 +1013,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>18</v>
@@ -1017,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>19</v>
@@ -1028,7 +1035,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -1039,7 +1046,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>21</v>
@@ -1050,7 +1057,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>22</v>
@@ -1061,7 +1068,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>23</v>
@@ -1072,7 +1079,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>24</v>
@@ -1083,7 +1090,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>25</v>
@@ -1094,7 +1101,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>26</v>
@@ -1105,7 +1112,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>27</v>
@@ -1113,10 +1120,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>28</v>
@@ -1124,10 +1131,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>29</v>
